--- a/SouthVietnam.xlsx
+++ b/SouthVietnam.xlsx
@@ -5,27 +5,28 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Distance" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="DistancefromCCtoFirm" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Population" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="WEEEAmount" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Location Index" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ContainerCapacities" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="capacity_cc" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="transportation_costs" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Inventory_holding_costs" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="Inventory_quantity_points" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="Costs" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="Unit_transportation_cost" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="Establishing_cc" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="y1" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="Inventory_costs" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="Stepwise_function" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="Supply" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="Product_shares" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Distance" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="DistancefromCCtoFirm" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Population" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="WEEEAmount" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Location Index" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="ContainerCapacities" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="capacity_cc" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="transportation_costs" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Inventory_holding_costs" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="Inventory_quantity_points" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="Costs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="Unit_transportation_cost" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="Establishing_cc" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="y1" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="Inventory_costs" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="Stepwise_function" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="Supply" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="116">
   <si>
     <t xml:space="preserve">Generation points</t>
   </si>
@@ -153,34 +154,16 @@
     <t xml:space="preserve">Ho Chi Minh</t>
   </si>
   <si>
+    <t xml:space="preserve">Share</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of generation points</t>
+    <t xml:space="preserve">City</t>
   </si>
   <si>
-    <t xml:space="preserve">Khu công nghiệp Hải Sơn - Long An
-Ấp Bình Tiền 2 – Xã Đức Hòa Hạ - Huyện Đức Hòa – Tỉnh Long An</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khu Công nghiệp Tân Thới Hiệp
-Khu công nghiệp Tân Thới Hiệp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khu Công Nghiệp Rạch Bắp An Điền
-Đường D1, Khu Công nghiệp Rạch Bắp, Xã An Điền, huyện Bến Cát, tỉnh Bình Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khu công nghiệp Tân Phú Trung - Tp. Hồ Chí Minh
-Quốc lộ 22, Ấp Trạm Bơm, xã Tân Phú Trung, Huyện Củ Chi, Tp.HCM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khu Công nghiệp Phước Đông
-ĐT782, Phước Đông, Gò Dầu, Tây Ninh, Việt Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khu công nghiệp sóng thần 2 - Bình Dương
-KCN Sóng Thần 2, Đường 20, TT. Dĩ An, H. Dĩ An, Bình Dương</t>
+    <t xml:space="preserve">Firm F</t>
   </si>
   <si>
     <t xml:space="preserve">Populations</t>
@@ -356,16 +339,10 @@
     <t xml:space="preserve">Total weight</t>
   </si>
   <si>
-    <t xml:space="preserve">Share</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Refrigerators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washing machines</t>
+    <t xml:space="preserve">Types</t>
   </si>
   <si>
     <t xml:space="preserve">Limit</t>
@@ -381,15 +358,6 @@
   </si>
   <si>
     <t xml:space="preserve">Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a3</t>
   </si>
   <si>
     <t xml:space="preserve">From Eurostat: (European Union, 2012)</t>
@@ -432,6 +400,9 @@
   </si>
   <si>
     <t xml:space="preserve">t=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC to Firm</t>
   </si>
   <si>
     <t xml:space="preserve">Cost</t>
@@ -498,7 +469,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="162"/>
     </font>
     <font>
       <b val="true"/>
@@ -506,7 +477,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="162"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -610,51 +581,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -674,7 +645,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,7 +661,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -706,12 +677,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -726,7 +693,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -734,11 +701,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -766,7 +733,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,6 +742,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -914,7 +885,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1167,540 +1138,543 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>100</v>
+      <c r="A1" s="34" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="n">
+      <c r="A2" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>102</v>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.3</v>
+        <f aca="false">$G$2/7*6</f>
+        <v>0.15</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2</v>
+        <f aca="false">$G$2/7*6</f>
+        <v>0.15</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.4</v>
+        <f aca="false">$G$2/7*6</f>
+        <v>0.15</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.4</v>
+        <f aca="false">$G$2/7*6</f>
+        <v>0.15</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.5</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="n">
+      <c r="A3" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>102</v>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">C2*1.01</f>
-        <v>0.303</v>
+        <v>0.1515</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">D2*1.01</f>
-        <v>0.202</v>
+        <v>0.1515</v>
       </c>
       <c r="E3" s="2" t="n">
         <f aca="false">E2*1.01</f>
-        <v>0.404</v>
+        <v>0.1515</v>
       </c>
       <c r="F3" s="2" t="n">
         <f aca="false">F2*1.01</f>
-        <v>0.404</v>
+        <v>0.1515</v>
       </c>
       <c r="G3" s="2" t="n">
         <f aca="false">G2*1.01</f>
-        <v>0.505</v>
+        <v>0.17675</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="n">
+      <c r="A4" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>102</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">C3*1.01</f>
-        <v>0.30603</v>
+        <v>0.153015</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">D3*1.01</f>
-        <v>0.20402</v>
+        <v>0.153015</v>
       </c>
       <c r="E4" s="2" t="n">
         <f aca="false">E3*1.01</f>
-        <v>0.40804</v>
+        <v>0.153015</v>
       </c>
       <c r="F4" s="2" t="n">
         <f aca="false">F3*1.01</f>
-        <v>0.40804</v>
+        <v>0.153015</v>
       </c>
       <c r="G4" s="2" t="n">
         <f aca="false">G3*1.01</f>
-        <v>0.51005</v>
+        <v>0.1785175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="n">
+      <c r="A5" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>102</v>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">C4*1.01</f>
-        <v>0.3090903</v>
+        <v>0.15454515</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">D4*1.01</f>
-        <v>0.2060602</v>
+        <v>0.15454515</v>
       </c>
       <c r="E5" s="2" t="n">
         <f aca="false">E4*1.01</f>
-        <v>0.4121204</v>
+        <v>0.15454515</v>
       </c>
       <c r="F5" s="2" t="n">
         <f aca="false">F4*1.01</f>
-        <v>0.4121204</v>
+        <v>0.15454515</v>
       </c>
       <c r="G5" s="2" t="n">
         <f aca="false">G4*1.01</f>
-        <v>0.5151505</v>
+        <v>0.180302675</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="n">
+      <c r="A6" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>102</v>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">C5*1.01</f>
-        <v>0.312181203</v>
+        <v>0.1560906015</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">D5*1.01</f>
-        <v>0.208120802</v>
+        <v>0.1560906015</v>
       </c>
       <c r="E6" s="2" t="n">
         <f aca="false">E5*1.01</f>
-        <v>0.416241604</v>
+        <v>0.1560906015</v>
       </c>
       <c r="F6" s="2" t="n">
         <f aca="false">F5*1.01</f>
-        <v>0.416241604</v>
+        <v>0.1560906015</v>
       </c>
       <c r="G6" s="2" t="n">
         <f aca="false">G5*1.01</f>
-        <v>0.520302005</v>
+        <v>0.18210570175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="n">
+      <c r="A7" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>102</v>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">C6*1.01</f>
-        <v>0.31530301503</v>
+        <v>0.157651507515</v>
       </c>
       <c r="D7" s="2" t="n">
         <f aca="false">D6*1.01</f>
-        <v>0.21020201002</v>
+        <v>0.157651507515</v>
       </c>
       <c r="E7" s="2" t="n">
         <f aca="false">E6*1.01</f>
-        <v>0.42040402004</v>
+        <v>0.157651507515</v>
       </c>
       <c r="F7" s="2" t="n">
         <f aca="false">F6*1.01</f>
-        <v>0.42040402004</v>
+        <v>0.157651507515</v>
       </c>
       <c r="G7" s="2" t="n">
         <f aca="false">G6*1.01</f>
-        <v>0.52550502505</v>
+        <v>0.1839267587675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="n">
+      <c r="A8" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>103</v>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="n">
-        <f aca="false">C2*0.75</f>
-        <v>0.225</v>
+        <f aca="false">C2*0.9</f>
+        <v>0.135</v>
       </c>
       <c r="D8" s="2" t="n">
-        <f aca="false">D2*0.75</f>
-        <v>0.15</v>
+        <f aca="false">D2*0.9</f>
+        <v>0.135</v>
       </c>
       <c r="E8" s="2" t="n">
-        <f aca="false">E2*0.75</f>
-        <v>0.3</v>
+        <f aca="false">E2*0.9</f>
+        <v>0.135</v>
       </c>
       <c r="F8" s="2" t="n">
-        <f aca="false">F2*0.75</f>
-        <v>0.3</v>
+        <f aca="false">F2*0.9</f>
+        <v>0.135</v>
       </c>
       <c r="G8" s="2" t="n">
-        <f aca="false">G2*0.75</f>
-        <v>0.375</v>
+        <f aca="false">G2*0.9</f>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="n">
+      <c r="A9" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>103</v>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">C8*1.01</f>
-        <v>0.22725</v>
+        <v>0.13635</v>
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">D8*1.01</f>
-        <v>0.1515</v>
+        <v>0.13635</v>
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">E8*1.01</f>
-        <v>0.303</v>
+        <v>0.13635</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">F8*1.01</f>
-        <v>0.303</v>
+        <v>0.13635</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">G8*1.01</f>
-        <v>0.37875</v>
+        <v>0.159075</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="n">
+      <c r="A10" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>103</v>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">C9*1.01</f>
-        <v>0.2295225</v>
+        <v>0.1377135</v>
       </c>
       <c r="D10" s="2" t="n">
         <f aca="false">D9*1.01</f>
-        <v>0.153015</v>
+        <v>0.1377135</v>
       </c>
       <c r="E10" s="2" t="n">
         <f aca="false">E9*1.01</f>
-        <v>0.30603</v>
+        <v>0.1377135</v>
       </c>
       <c r="F10" s="2" t="n">
         <f aca="false">F9*1.01</f>
-        <v>0.30603</v>
+        <v>0.1377135</v>
       </c>
       <c r="G10" s="2" t="n">
         <f aca="false">G9*1.01</f>
-        <v>0.3825375</v>
+        <v>0.16066575</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="n">
+      <c r="A11" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>103</v>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">C10*1.01</f>
-        <v>0.231817725</v>
+        <v>0.139090635</v>
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">D10*1.01</f>
-        <v>0.15454515</v>
+        <v>0.139090635</v>
       </c>
       <c r="E11" s="2" t="n">
         <f aca="false">E10*1.01</f>
-        <v>0.3090903</v>
+        <v>0.139090635</v>
       </c>
       <c r="F11" s="2" t="n">
         <f aca="false">F10*1.01</f>
-        <v>0.3090903</v>
+        <v>0.139090635</v>
       </c>
       <c r="G11" s="2" t="n">
         <f aca="false">G10*1.01</f>
-        <v>0.386362875</v>
+        <v>0.1622724075</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="n">
+      <c r="A12" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>103</v>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">C11*1.01</f>
-        <v>0.23413590225</v>
+        <v>0.14048154135</v>
       </c>
       <c r="D12" s="2" t="n">
         <f aca="false">D11*1.01</f>
-        <v>0.1560906015</v>
+        <v>0.14048154135</v>
       </c>
       <c r="E12" s="2" t="n">
         <f aca="false">E11*1.01</f>
-        <v>0.312181203</v>
+        <v>0.14048154135</v>
       </c>
       <c r="F12" s="2" t="n">
         <f aca="false">F11*1.01</f>
-        <v>0.312181203</v>
+        <v>0.14048154135</v>
       </c>
       <c r="G12" s="2" t="n">
         <f aca="false">G11*1.01</f>
-        <v>0.39022650375</v>
+        <v>0.163895131575</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="n">
+      <c r="A13" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>103</v>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">C12*1.01</f>
-        <v>0.2364772612725</v>
+        <v>0.1418863567635</v>
       </c>
       <c r="D13" s="2" t="n">
         <f aca="false">D12*1.01</f>
-        <v>0.157651507515</v>
+        <v>0.1418863567635</v>
       </c>
       <c r="E13" s="2" t="n">
         <f aca="false">E12*1.01</f>
-        <v>0.31530301503</v>
+        <v>0.1418863567635</v>
       </c>
       <c r="F13" s="2" t="n">
         <f aca="false">F12*1.01</f>
-        <v>0.31530301503</v>
+        <v>0.1418863567635</v>
       </c>
       <c r="G13" s="2" t="n">
         <f aca="false">G12*1.01</f>
-        <v>0.3941287687875</v>
+        <v>0.16553408289075</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="n">
+      <c r="A14" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>104</v>
+      <c r="B14" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="n">
-        <f aca="false">C2*0.5</f>
-        <v>0.15</v>
+        <f aca="false">C2*0.8</f>
+        <v>0.12</v>
       </c>
       <c r="D14" s="2" t="n">
-        <f aca="false">D2*0.5</f>
-        <v>0.1</v>
+        <f aca="false">D2*0.8</f>
+        <v>0.12</v>
       </c>
       <c r="E14" s="2" t="n">
-        <f aca="false">E2*0.5</f>
-        <v>0.2</v>
+        <f aca="false">E2*0.8</f>
+        <v>0.12</v>
       </c>
       <c r="F14" s="2" t="n">
-        <f aca="false">F2*0.5</f>
-        <v>0.2</v>
+        <f aca="false">F2*0.8</f>
+        <v>0.12</v>
       </c>
       <c r="G14" s="2" t="n">
-        <f aca="false">G2*0.5</f>
-        <v>0.25</v>
+        <f aca="false">G2*0.8</f>
+        <v>0.14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="n">
+      <c r="A15" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>104</v>
+      <c r="B15" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">C14*1.01</f>
-        <v>0.1515</v>
+        <v>0.1212</v>
       </c>
       <c r="D15" s="2" t="n">
         <f aca="false">D14*1.01</f>
-        <v>0.101</v>
+        <v>0.1212</v>
       </c>
       <c r="E15" s="2" t="n">
         <f aca="false">E14*1.01</f>
-        <v>0.202</v>
+        <v>0.1212</v>
       </c>
       <c r="F15" s="2" t="n">
         <f aca="false">F14*1.01</f>
-        <v>0.202</v>
+        <v>0.1212</v>
       </c>
       <c r="G15" s="2" t="n">
         <f aca="false">G14*1.01</f>
-        <v>0.2525</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="n">
+      <c r="A16" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>104</v>
+      <c r="B16" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">C15*1.01</f>
-        <v>0.153015</v>
+        <v>0.122412</v>
       </c>
       <c r="D16" s="2" t="n">
         <f aca="false">D15*1.01</f>
-        <v>0.10201</v>
+        <v>0.122412</v>
       </c>
       <c r="E16" s="2" t="n">
         <f aca="false">E15*1.01</f>
-        <v>0.20402</v>
+        <v>0.122412</v>
       </c>
       <c r="F16" s="2" t="n">
         <f aca="false">F15*1.01</f>
-        <v>0.20402</v>
+        <v>0.122412</v>
       </c>
       <c r="G16" s="2" t="n">
         <f aca="false">G15*1.01</f>
-        <v>0.255025</v>
+        <v>0.142814</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="n">
+      <c r="A17" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>104</v>
+      <c r="B17" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">C16*1.01</f>
-        <v>0.15454515</v>
+        <v>0.12363612</v>
       </c>
       <c r="D17" s="2" t="n">
         <f aca="false">D16*1.01</f>
-        <v>0.1030301</v>
+        <v>0.12363612</v>
       </c>
       <c r="E17" s="2" t="n">
         <f aca="false">E16*1.01</f>
-        <v>0.2060602</v>
+        <v>0.12363612</v>
       </c>
       <c r="F17" s="2" t="n">
         <f aca="false">F16*1.01</f>
-        <v>0.2060602</v>
+        <v>0.12363612</v>
       </c>
       <c r="G17" s="2" t="n">
         <f aca="false">G16*1.01</f>
-        <v>0.25757525</v>
+        <v>0.14424214</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="n">
+      <c r="A18" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>104</v>
+      <c r="B18" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="n">
         <f aca="false">C17*1.01</f>
-        <v>0.1560906015</v>
+        <v>0.1248724812</v>
       </c>
       <c r="D18" s="2" t="n">
         <f aca="false">D17*1.01</f>
-        <v>0.104060401</v>
+        <v>0.1248724812</v>
       </c>
       <c r="E18" s="2" t="n">
         <f aca="false">E17*1.01</f>
-        <v>0.208120802</v>
+        <v>0.1248724812</v>
       </c>
       <c r="F18" s="2" t="n">
         <f aca="false">F17*1.01</f>
-        <v>0.208120802</v>
+        <v>0.1248724812</v>
       </c>
       <c r="G18" s="2" t="n">
         <f aca="false">G17*1.01</f>
-        <v>0.2601510025</v>
+        <v>0.1456845614</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="n">
+      <c r="A19" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>104</v>
+      <c r="B19" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">C18*1.01</f>
-        <v>0.157651507515</v>
+        <v>0.126121206012</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">D18*1.01</f>
-        <v>0.10510100501</v>
+        <v>0.126121206012</v>
       </c>
       <c r="E19" s="2" t="n">
         <f aca="false">E18*1.01</f>
-        <v>0.21020201002</v>
+        <v>0.126121206012</v>
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">F18*1.01</f>
-        <v>0.21020201002</v>
+        <v>0.126121206012</v>
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">G18*1.01</f>
-        <v>0.262752512525</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>0.147141407014</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1717,97 +1691,540 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="2" width="10.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="n">
+      <c r="A2" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40" t="n">
-        <v>0</v>
+      <c r="B2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.3</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="n">
+      <c r="A3" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>150000</v>
+      <c r="B3" s="37" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>150000</v>
+        <f aca="false">C2*1.01</f>
+        <v>0.303</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>300000</v>
+        <f aca="false">D2*1.01</f>
+        <v>0.202</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>200000</v>
+        <f aca="false">E2*1.01</f>
+        <v>0.404</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>400000</v>
+        <f aca="false">F2*1.01</f>
+        <v>0.404</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <f aca="false">G2*1.01</f>
+        <v>0.505</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="n">
+      <c r="A4" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="n">
-        <v>100000000000</v>
-      </c>
-      <c r="C4" s="42" t="n">
-        <v>100000000000</v>
-      </c>
-      <c r="D4" s="42" t="n">
-        <v>100000000000</v>
-      </c>
-      <c r="E4" s="42" t="n">
-        <v>100000000000</v>
-      </c>
-      <c r="F4" s="42" t="n">
-        <v>100000000000</v>
-      </c>
-    </row>
+      <c r="B4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <f aca="false">C3*1.01</f>
+        <v>0.30603</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">D3*1.01</f>
+        <v>0.20402</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">E3*1.01</f>
+        <v>0.40804</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <f aca="false">F3*1.01</f>
+        <v>0.40804</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">G3*1.01</f>
+        <v>0.51005</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">C4*1.01</f>
+        <v>0.3090903</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">D4*1.01</f>
+        <v>0.2060602</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">E4*1.01</f>
+        <v>0.4121204</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">F4*1.01</f>
+        <v>0.4121204</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">G4*1.01</f>
+        <v>0.5151505</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">C5*1.01</f>
+        <v>0.312181203</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">D5*1.01</f>
+        <v>0.208120802</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <f aca="false">E5*1.01</f>
+        <v>0.416241604</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">F5*1.01</f>
+        <v>0.416241604</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <f aca="false">G5*1.01</f>
+        <v>0.520302005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">C6*1.01</f>
+        <v>0.31530301503</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">D6*1.01</f>
+        <v>0.21020201002</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">E6*1.01</f>
+        <v>0.42040402004</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">F6*1.01</f>
+        <v>0.42040402004</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">G6*1.01</f>
+        <v>0.52550502505</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">C2*0.75</f>
+        <v>0.225</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">D2*0.75</f>
+        <v>0.15</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="false">E2*0.75</f>
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">F2*0.75</f>
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">G2*0.75</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">C8*1.01</f>
+        <v>0.22725</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <f aca="false">D8*1.01</f>
+        <v>0.1515</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <f aca="false">E8*1.01</f>
+        <v>0.303</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">F8*1.01</f>
+        <v>0.303</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <f aca="false">G8*1.01</f>
+        <v>0.37875</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">C9*1.01</f>
+        <v>0.2295225</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">D9*1.01</f>
+        <v>0.153015</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">E9*1.01</f>
+        <v>0.30603</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">F9*1.01</f>
+        <v>0.30603</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">G9*1.01</f>
+        <v>0.3825375</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">C10*1.01</f>
+        <v>0.231817725</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">D10*1.01</f>
+        <v>0.15454515</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">E10*1.01</f>
+        <v>0.3090903</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">F10*1.01</f>
+        <v>0.3090903</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">G10*1.01</f>
+        <v>0.386362875</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <f aca="false">C11*1.01</f>
+        <v>0.23413590225</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">D11*1.01</f>
+        <v>0.1560906015</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">E11*1.01</f>
+        <v>0.312181203</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">F11*1.01</f>
+        <v>0.312181203</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">G11*1.01</f>
+        <v>0.39022650375</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <f aca="false">C12*1.01</f>
+        <v>0.2364772612725</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">D12*1.01</f>
+        <v>0.157651507515</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <f aca="false">E12*1.01</f>
+        <v>0.31530301503</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">F12*1.01</f>
+        <v>0.31530301503</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">G12*1.01</f>
+        <v>0.3941287687875</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <f aca="false">C2*0.5</f>
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">D2*0.5</f>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="false">E2*0.5</f>
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">F2*0.5</f>
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <f aca="false">G2*0.5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <f aca="false">C14*1.01</f>
+        <v>0.1515</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">D14*1.01</f>
+        <v>0.101</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">E14*1.01</f>
+        <v>0.202</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">F14*1.01</f>
+        <v>0.202</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <f aca="false">G14*1.01</f>
+        <v>0.2525</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <f aca="false">C15*1.01</f>
+        <v>0.153015</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">D15*1.01</f>
+        <v>0.10201</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">E15*1.01</f>
+        <v>0.20402</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">F15*1.01</f>
+        <v>0.20402</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <f aca="false">G15*1.01</f>
+        <v>0.255025</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <f aca="false">C16*1.01</f>
+        <v>0.15454515</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">D16*1.01</f>
+        <v>0.1030301</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <f aca="false">E16*1.01</f>
+        <v>0.2060602</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">F16*1.01</f>
+        <v>0.2060602</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <f aca="false">G16*1.01</f>
+        <v>0.25757525</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <f aca="false">C17*1.01</f>
+        <v>0.1560906015</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <f aca="false">D17*1.01</f>
+        <v>0.104060401</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <f aca="false">E17*1.01</f>
+        <v>0.208120802</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <f aca="false">F17*1.01</f>
+        <v>0.208120802</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <f aca="false">G17*1.01</f>
+        <v>0.2601510025</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <f aca="false">C18*1.01</f>
+        <v>0.157651507515</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">D18*1.01</f>
+        <v>0.10510100501</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">E18*1.01</f>
+        <v>0.21020201002</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">F18*1.01</f>
+        <v>0.21020201002</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">G18*1.01</f>
+        <v>0.262752512525</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1824,9 +2241,116 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="2" width="10.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="41" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="C4" s="41" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="D4" s="41" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="E4" s="41" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="F4" s="41" t="n">
+        <v>100000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1847,22 +2371,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="I1" s="43" t="s">
-        <v>109</v>
+      <c r="A1" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="I1" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -1870,7 +2394,7 @@
       <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1881,22 +2405,22 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="44" t="n">
+      <c r="A2" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="43" t="n">
         <v>0.165</v>
       </c>
-      <c r="E2" s="44" t="n">
+      <c r="E2" s="43" t="n">
         <v>0.165</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="38"/>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>3</v>
@@ -1915,18 +2439,18 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="35" t="s">
+      <c r="A3" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="I3" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J3" s="2" t="n">
         <f aca="false">J2*1.01</f>
@@ -1950,20 +2474,20 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="44" t="n">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="43" t="n">
         <v>0.165</v>
       </c>
-      <c r="E4" s="44" t="n">
+      <c r="E4" s="43" t="n">
         <v>0.05</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="43"/>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J4" s="2" t="n">
         <f aca="false">J3*1.01</f>
@@ -1987,22 +2511,22 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="44" t="n">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="43" t="n">
         <f aca="false">D4*1.01</f>
         <v>0.16665</v>
       </c>
-      <c r="E5" s="44" t="n">
+      <c r="E5" s="43" t="n">
         <f aca="false">E4*1.01</f>
         <v>0.0505</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="43"/>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J5" s="2" t="n">
         <f aca="false">J4*1.01</f>
@@ -2026,22 +2550,22 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="44" t="n">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="43" t="n">
         <f aca="false">D5*1.01</f>
         <v>0.1683165</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="43" t="n">
         <f aca="false">E5*1.01</f>
         <v>0.051005</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="43"/>
       <c r="I6" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J6" s="2" t="n">
         <f aca="false">J5*1.01</f>
@@ -2065,23 +2589,23 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="44" t="n">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="43" t="n">
         <f aca="false">D6*1.01</f>
         <v>0.169999665</v>
       </c>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="43" t="n">
         <f aca="false">E6*1.01</f>
         <v>0.05151505</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J7" s="2" t="n">
         <f aca="false">J6*1.01</f>
@@ -2105,38 +2629,38 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="44" t="n">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="43" t="n">
         <f aca="false">D7*1.01</f>
         <v>0.17169966165</v>
       </c>
-      <c r="E8" s="44" t="n">
+      <c r="E8" s="43" t="n">
         <f aca="false">E7*1.01</f>
         <v>0.0520302005</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="44" t="n">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="43" t="n">
         <f aca="false">D8*1.01</f>
         <v>0.1734166582665</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="43" t="n">
         <f aca="false">E8*1.01</f>
         <v>0.052550502505</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="n">
@@ -2156,81 +2680,81 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
-        <v>112</v>
+      <c r="A17" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="n">
         <f aca="false">$F$17/7*6</f>
@@ -2293,8 +2817,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
-        <v>114</v>
+      <c r="A18" s="35" t="s">
+        <v>105</v>
       </c>
       <c r="B18" s="2" t="n">
         <f aca="false">B17*1.01</f>
@@ -2358,8 +2882,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
-        <v>115</v>
+      <c r="A19" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">B18*1.01</f>
@@ -2423,8 +2947,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
-        <v>116</v>
+      <c r="A20" s="35" t="s">
+        <v>107</v>
       </c>
       <c r="B20" s="2" t="n">
         <f aca="false">B19*1.01</f>
@@ -2488,8 +3012,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="s">
-        <v>117</v>
+      <c r="A21" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">B20*1.01</f>
@@ -2553,8 +3077,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="s">
-        <v>118</v>
+      <c r="A22" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="n">
         <f aca="false">B21*1.01</f>
@@ -2633,240 +3157,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="36.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="10.16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="44" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="E2" s="44" t="n">
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="45"/>
-      <c r="C3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="44" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="E4" s="44" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="44" t="n">
-        <f aca="false">D4*1.01</f>
-        <v>0.16665</v>
-      </c>
-      <c r="E5" s="44" t="n">
-        <f aca="false">E4*1.01</f>
-        <v>0.0505</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="44" t="n">
-        <f aca="false">D5*1.01</f>
-        <v>0.1683165</v>
-      </c>
-      <c r="E6" s="44" t="n">
-        <f aca="false">E5*1.01</f>
-        <v>0.051005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="44" t="n">
-        <f aca="false">D6*1.01</f>
-        <v>0.169999665</v>
-      </c>
-      <c r="E7" s="44" t="n">
-        <f aca="false">E6*1.01</f>
-        <v>0.05151505</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="44" t="n">
-        <f aca="false">D7*1.01</f>
-        <v>0.17169966165</v>
-      </c>
-      <c r="E8" s="44" t="n">
-        <f aca="false">E7*1.01</f>
-        <v>0.0520302005</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="44" t="n">
-        <f aca="false">D8*1.01</f>
-        <v>0.1734166582665</v>
-      </c>
-      <c r="E9" s="44" t="n">
-        <f aca="false">E8*1.01</f>
-        <v>0.052550502505</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.23"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
+    <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>119</v>
+      <c r="B1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="n">
+      <c r="A2" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="n">
-        <v>40000</v>
+      <c r="B2" s="43" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="C2" s="43" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="n">
+      <c r="A3" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="n">
-        <f aca="false">B2*1.005</f>
-        <v>40200</v>
+      <c r="B3" s="43" t="n">
+        <f aca="false">B2*1.01</f>
+        <v>0.16665</v>
+      </c>
+      <c r="C3" s="43" t="n">
+        <f aca="false">C2*1.01</f>
+        <v>0.0505</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="n">
+      <c r="A4" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="n">
-        <f aca="false">B3*1.005</f>
-        <v>40401</v>
+      <c r="B4" s="43" t="n">
+        <f aca="false">B3*1.01</f>
+        <v>0.1683165</v>
+      </c>
+      <c r="C4" s="43" t="n">
+        <f aca="false">C3*1.01</f>
+        <v>0.051005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="n">
+      <c r="A5" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="n">
-        <f aca="false">B4*1.005</f>
-        <v>40603.005</v>
+      <c r="B5" s="43" t="n">
+        <f aca="false">B4*1.01</f>
+        <v>0.169999665</v>
+      </c>
+      <c r="C5" s="43" t="n">
+        <f aca="false">C4*1.01</f>
+        <v>0.05151505</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="n">
+      <c r="A6" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="46" t="n">
-        <f aca="false">B5*1.005</f>
-        <v>40806.020025</v>
+      <c r="B6" s="43" t="n">
+        <f aca="false">B5*1.01</f>
+        <v>0.17169966165</v>
+      </c>
+      <c r="C6" s="43" t="n">
+        <f aca="false">C5*1.01</f>
+        <v>0.0520302005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="n">
+      <c r="A7" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="n">
-        <f aca="false">B6*1.005</f>
-        <v>41010.050125125</v>
+      <c r="B7" s="43" t="n">
+        <f aca="false">B6*1.01</f>
+        <v>0.1734166582665</v>
+      </c>
+      <c r="C7" s="43" t="n">
+        <f aca="false">C6*1.01</f>
+        <v>0.052550502505</v>
       </c>
     </row>
   </sheetData>
@@ -2881,6 +3273,94 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46" t="n">
+        <f aca="false">B2*1.005</f>
+        <v>40200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46" t="n">
+        <f aca="false">B3*1.005</f>
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="n">
+        <f aca="false">B4*1.005</f>
+        <v>40603.005</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="n">
+        <f aca="false">B5*1.005</f>
+        <v>40806.020025</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="n">
+        <f aca="false">B6*1.005</f>
+        <v>41010.050125125</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3323,14 +3803,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3341,21 +3821,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3364,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3</v>
@@ -3387,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">C2*0.75</f>
@@ -3415,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">C2*1.01</f>
@@ -3443,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">C4*0.75</f>
@@ -3471,7 +3951,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">C4*1.01</f>
@@ -3499,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">C6*0.75</f>
@@ -3527,7 +4007,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">C6*1.01</f>
@@ -3555,7 +4035,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">C8*0.75</f>
@@ -3583,7 +4063,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">C8*1.01</f>
@@ -3611,7 +4091,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">C10*0.75</f>
@@ -3639,7 +4119,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">C10*1.01</f>
@@ -3667,7 +4147,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">C12*0.75</f>
@@ -3702,14 +4182,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3719,22 +4199,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="2"/>
@@ -3765,13 +4245,13 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="n">
+      <c r="A2" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="n">
+      <c r="B2" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="n">
+      <c r="C2" s="39" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
@@ -3811,7 +4291,7 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="n">
+      <c r="A3" s="40" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -3857,22 +4337,22 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="n">
+      <c r="A4" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="n">
+      <c r="B4" s="41" t="n">
         <v>100000000000</v>
       </c>
-      <c r="C4" s="42" t="n">
+      <c r="C4" s="41" t="n">
         <v>100000000000</v>
       </c>
-      <c r="D4" s="42" t="n">
+      <c r="D4" s="41" t="n">
         <v>100000000000</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="41" t="n">
         <v>100000000000</v>
       </c>
-      <c r="F4" s="42" t="n">
+      <c r="F4" s="41" t="n">
         <v>100000000000</v>
       </c>
       <c r="G4" s="2"/>
@@ -3913,15 +4393,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3935,48 +4415,48 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="8"/>
       <c r="AE1" s="8"/>
       <c r="AF1" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
@@ -3985,112 +4465,112 @@
     </row>
     <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="L2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="V2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AA2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AF2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6803,7 +7283,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E23" s="21" t="n">
         <f aca="false">SUM(E3:E21)</f>
@@ -6953,10 +7433,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6966,1898 +7521,1323 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="n">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f aca="false" t="array" ref="C1:U1">TRANSPOSE(B2:B20)</f>
+        <v>An Giang</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>Bac Lieu</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <v>Ben Tre</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>Ca Mau</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>Can Tho</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>Dong Thap</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>Hau Giang</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>Kien Giang</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>Long An, Viet Nam</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>Soc Trang</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <v>Tien Giang</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <v>Tra Vinh</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <v>Vinh Long</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <v>Ba Ria Vung Tau</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <v>Binh Duong</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <v>Binh Phuoc</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <v>Dong Nai, Viet Nam</v>
+      </c>
+      <c r="T1" s="2" t="str">
+        <v>Tay Ninh</v>
+      </c>
+      <c r="U1" s="2" t="str">
+        <v>Ho Chi Minh</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f aca="false" t="array" ref="C2:U2">TRANSPOSE(B3:B21)</f>
-        <v>An Giang</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>Bac Lieu</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>Ben Tre</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <v>Ca Mau</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <v>Can Tho</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <v>Dong Thap</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <v>Hau Giang</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <v>Kien Giang</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <v>Long An, Viet Nam</v>
-      </c>
-      <c r="L2" s="2" t="str">
-        <v>Soc Trang</v>
-      </c>
-      <c r="M2" s="2" t="str">
-        <v>Tien Giang</v>
-      </c>
-      <c r="N2" s="2" t="str">
-        <v>Tra Vinh</v>
-      </c>
-      <c r="O2" s="2" t="str">
-        <v>Vinh Long</v>
-      </c>
-      <c r="P2" s="2" t="str">
-        <v>Ba Ria Vung Tau</v>
-      </c>
-      <c r="Q2" s="2" t="str">
-        <v>Binh Duong</v>
-      </c>
-      <c r="R2" s="2" t="str">
-        <v>Binh Phuoc</v>
-      </c>
-      <c r="S2" s="2" t="str">
-        <v>Dong Nai, Viet Nam</v>
-      </c>
-      <c r="T2" s="2" t="str">
-        <v>Tay Ninh</v>
-      </c>
-      <c r="U2" s="2" t="str">
-        <v>Ho Chi Minh</v>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>169</v>
-      </c>
       <c r="E3" s="2" t="n">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>206</v>
+        <v>323</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>188</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>226</v>
-      </c>
       <c r="F4" s="2" t="n">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>275</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>251</v>
-      </c>
       <c r="G5" s="2" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>252</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>215</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>257</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>115</v>
-      </c>
       <c r="M6" s="2" t="n">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>405</v>
+        <v>282</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>300</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="G7" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>92</v>
-      </c>
       <c r="I7" s="2" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>33</v>
+        <f aca="false" t="array" ref="C8:H8">TRANSPOSE(I2:I7)</f>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="F8" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="U8" s="2" t="n">
         <v>215</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>174</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="n">
-        <f aca="false" t="array" ref="C9:H9">TRANSPOSE(I3:I8)</f>
-        <v>104</v>
+        <f aca="false" t="array" ref="C9:I9">TRANSPOSE(J2:J8)</f>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="J9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <v>63</v>
-      </c>
       <c r="K9" s="2" t="n">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="n">
-        <f aca="false" t="array" ref="C10:I10">TRANSPOSE(J3:J9)</f>
-        <v>73</v>
+        <f aca="false" t="array" ref="C10:J10">TRANSPOSE(K2:K9)</f>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="J10" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="K10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>203</v>
-      </c>
       <c r="L10" s="2" t="n">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>351</v>
+        <v>152</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>246</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="n">
-        <f aca="false" t="array" ref="C11:J11">TRANSPOSE(K3:K10)</f>
-        <v>144</v>
+        <f aca="false" t="array" ref="C11:K11">TRANSPOSE(L2:L10)</f>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>257</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="K11" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="L11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <v>182</v>
-      </c>
       <c r="M11" s="2" t="n">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>152</v>
+        <v>329</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>46</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="n">
-        <f aca="false" t="array" ref="C12:K12">TRANSPOSE(L3:L11)</f>
-        <v>119</v>
+        <f aca="false" t="array" ref="C12:L12">TRANSPOSE(M2:M11)</f>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="L12" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="M12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>163</v>
-      </c>
       <c r="N12" s="2" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>225</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="n">
-        <f aca="false" t="array" ref="C13:L13">TRANSPOSE(M3:M12)</f>
+        <f aca="false" t="array" ref="C13:M13">TRANSPOSE(N2:N12)</f>
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>239</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="J13" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="K13" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>27</v>
-      </c>
       <c r="L13" s="2" t="n">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="M13" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="N13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="2" t="n">
-        <v>72</v>
-      </c>
       <c r="O13" s="2" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="n">
-        <f aca="false" t="array" ref="C14:M14">TRANSPOSE(N3:N13)</f>
-        <v>133</v>
+        <f aca="false" t="array" ref="C14:N14">TRANSPOSE(O2:O13)</f>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N14" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="O14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>65</v>
-      </c>
       <c r="P14" s="2" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="n">
-        <f aca="false" t="array" ref="C15:N15">TRANSPOSE(O3:O14)</f>
-        <v>68</v>
+        <f aca="false" t="array" ref="C15:O15">TRANSPOSE(P2:P14)</f>
+        <v>257</v>
       </c>
       <c r="D15" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>315</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="M15" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>172</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>73</v>
-      </c>
       <c r="N15" s="2" t="n">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="O15" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="P15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P15" s="2" t="n">
-        <v>204</v>
-      </c>
       <c r="Q15" s="2" t="n">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>135</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="n">
-        <f aca="false" t="array" ref="C16:O16">TRANSPOSE(P3:P15)</f>
-        <v>257</v>
+        <f aca="false" t="array" ref="C16:P16">TRANSPOSE(Q2:Q15)</f>
+        <v>206</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="P16" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="2" t="n">
-        <v>91</v>
-      </c>
       <c r="R16" s="2" t="n">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="n">
-        <f aca="false" t="array" ref="C17:P17">TRANSPOSE(Q3:Q16)</f>
-        <v>206</v>
+        <f aca="false" t="array" ref="C17:Q17">TRANSPOSE(R2:R16)</f>
+        <v>292</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="R17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="2" t="n">
-        <v>89</v>
-      </c>
       <c r="S17" s="2" t="n">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="n">
-        <f aca="false" t="array" ref="C18:Q18">TRANSPOSE(R3:R17)</f>
-        <v>292</v>
+        <f aca="false" t="array" ref="C18:R18">TRANSPOSE(S2:S17)</f>
+        <v>211</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="R18" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="S18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="S18" s="2" t="n">
-        <v>109</v>
-      </c>
       <c r="T18" s="2" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="n">
-        <f aca="false" t="array" ref="C19:R19">TRANSPOSE(S3:S18)</f>
-        <v>211</v>
+        <f aca="false" t="array" ref="C19:S19">TRANSPOSE(T2:T18)</f>
+        <v>206</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="E19" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="R19" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>323</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>238</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>270</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>248</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>109</v>
-      </c>
       <c r="S19" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="T19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T19" s="2" t="n">
-        <v>106</v>
-      </c>
       <c r="U19" s="2" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="n">
-        <f aca="false" t="array" ref="C20:S20">TRANSPOSE(T3:T19)</f>
-        <v>206</v>
+        <f aca="false" t="array" ref="C20:T20">TRANSPOSE(U2:U19)</f>
+        <v>188</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="G20" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="L20" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>271</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>273</v>
-      </c>
       <c r="M20" s="2" t="n">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="T20" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="U20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U20" s="2" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <f aca="false" t="array" ref="C21:T21">TRANSPOSE(U3:U20)</f>
-        <v>188</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>275</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>215</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>246</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="P21" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Q21" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="R21" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="S21" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="U21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <f aca="false">COUNT(A3:A21)</f>
-        <v>19</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16375" min="2" style="2" width="8.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="2" width="10.16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>195</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>278</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>312</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>283</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>298</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>303</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>337</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>308</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>323</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>214</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>247</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>233</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>235</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>284</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>255</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>270</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>216</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>262</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>233</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>248</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>182</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8873,23 +8853,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="22.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16381" min="3" style="2" width="8.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="2" width="10.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16374" min="1" style="2" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="2" width="10.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>46</v>
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,7 +8893,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2164.2</v>
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8905,7 +8916,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>897</v>
+        <v>263</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>278</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8913,7 +8939,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1268.2</v>
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8921,7 +8962,22 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1229.6</v>
+        <v>288</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>308</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,7 +8985,22 @@
         <v>21</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1282.3</v>
+        <v>165</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8937,7 +9008,22 @@
         <v>24</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1693.3</v>
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8945,7 +9031,22 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>776.7</v>
+        <v>198</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8953,7 +9054,22 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1810.5</v>
+        <v>235</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8961,7 +9077,22 @@
         <v>27</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1503.1</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8969,7 +9100,22 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1315.9</v>
+        <v>216</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8977,7 +9123,22 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1762.3</v>
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8985,7 +9146,22 @@
         <v>30</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1049.8</v>
+        <v>133</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8993,7 +9169,22 @@
         <v>31</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1051.8</v>
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9001,7 +9192,22 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1112.9</v>
+        <v>106</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9009,7 +9215,22 @@
         <v>33</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2163.6</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9017,7 +9238,22 @@
         <v>34</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>979.6</v>
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9025,7 +9261,22 @@
         <v>35</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3086.1</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9033,7 +9284,22 @@
         <v>36</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1133.4</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9041,11 +9307,24 @@
         <v>37</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>8598.7</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9062,10 +9341,199 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16381" min="3" style="2" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="2" width="10.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2164.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1268.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1229.6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1282.3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1693.3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>776.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1810.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1503.1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1315.9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1762.3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1049.8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1051.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1112.9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>2163.6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>979.6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>3086.1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1133.4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>8598.7</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:HW58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM2" activeCellId="0" sqref="AM2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9255,48 +9723,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="8"/>
       <c r="AE1" s="8"/>
       <c r="AF1" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
@@ -9305,7 +9773,7 @@
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
       <c r="AM1" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AN1" s="11"/>
       <c r="AO1" s="11"/>
@@ -9313,7 +9781,7 @@
       <c r="AQ1" s="11"/>
       <c r="AR1" s="11"/>
       <c r="AS1" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AT1" s="12"/>
       <c r="AU1" s="12"/>
@@ -9321,7 +9789,7 @@
       <c r="AW1" s="12"/>
       <c r="AX1" s="12"/>
       <c r="AY1" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AZ1" s="13"/>
       <c r="BA1" s="13"/>
@@ -9329,7 +9797,7 @@
       <c r="BC1" s="13"/>
       <c r="BD1" s="13"/>
       <c r="BE1" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
@@ -9337,7 +9805,7 @@
       <c r="BI1" s="8"/>
       <c r="BJ1" s="8"/>
       <c r="BK1" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BL1" s="8"/>
       <c r="BM1" s="8"/>
@@ -9347,209 +9815,209 @@
     </row>
     <row r="2" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="L2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="V2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AA2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AF2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AS2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AT2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AU2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AR2" s="15" t="s">
+      <c r="AV2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AW2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="15" t="s">
+      <c r="AX2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="15" t="s">
+      <c r="AZ2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="BE2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="BJ2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AY2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD2" s="15" t="s">
+      <c r="BO2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="BE2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="BM2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="BP2" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="n">
         <v>1</v>
       </c>
@@ -12592,7 +13060,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D23" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E23" s="21" t="n">
         <f aca="false">SUM(E3:E21)</f>
@@ -12632,19 +13100,19 @@
       <c r="AL23" s="19"/>
       <c r="AM23" s="19"/>
       <c r="AN23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR23" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="AO23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP23" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ23" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR23" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="AY23" s="25"/>
       <c r="AZ23" s="25"/>
@@ -13308,7 +13776,10 @@
       <c r="HW25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="21"/>
+      <c r="G26" s="21" t="n">
+        <f aca="false">SUM(G3:K3)</f>
+        <v>1269401.78330663</v>
+      </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -13339,7 +13810,7 @@
       <c r="AI26" s="21"/>
       <c r="AJ26" s="25"/>
       <c r="AK26" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AL26" s="20" t="n">
         <f aca="false">SUM(G3:AJ21)</f>
@@ -14255,15 +14726,15 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -15675,7 +16146,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J36" s="2" t="n">
         <v>2436255</v>
@@ -16358,19 +16829,19 @@
     </row>
     <row r="39" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -18139,7 +18610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -18160,7 +18631,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18326,7 +18797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -18334,7 +18805,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18343,37 +18814,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
+      <c r="A1" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="B1" s="8" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="n">
+      <c r="B2" s="30" t="n">
         <v>10000</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="C2" s="30" t="n">
         <v>10000</v>
       </c>
-      <c r="D2" s="32" t="n">
+      <c r="D2" s="31" t="n">
         <v>15000</v>
       </c>
-      <c r="E2" s="32" t="n">
+      <c r="E2" s="31" t="n">
         <v>15000</v>
       </c>
       <c r="F2" s="29" t="n">
@@ -18381,42 +18854,42 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="n">
+      <c r="B3" s="31" t="n">
         <v>7500</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="31" t="n">
         <v>7500</v>
       </c>
-      <c r="D3" s="32" t="n">
+      <c r="D3" s="31" t="n">
         <v>12500</v>
       </c>
-      <c r="E3" s="32" t="n">
+      <c r="E3" s="31" t="n">
         <v>12500</v>
       </c>
-      <c r="F3" s="32" t="n">
+      <c r="F3" s="31" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="32" t="n">
+      <c r="B4" s="31" t="n">
         <v>5000</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="31" t="n">
         <v>5000</v>
       </c>
-      <c r="D4" s="32" t="n">
+      <c r="D4" s="31" t="n">
         <v>10000</v>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="E4" s="31" t="n">
         <v>10000</v>
       </c>
-      <c r="F4" s="32" t="n">
+      <c r="F4" s="31" t="n">
         <v>7500</v>
       </c>
     </row>
@@ -18433,7 +18906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -18453,24 +18926,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -18481,23 +18954,23 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34" t="n">
+      <c r="C2" s="33" t="n">
         <f aca="false">WEEEAmount!C40</f>
         <v>4404147</v>
       </c>
-      <c r="D2" s="34" t="n">
+      <c r="D2" s="33" t="n">
         <f aca="false">WEEEAmount!D40</f>
         <v>480452.4</v>
       </c>
-      <c r="E2" s="34" t="n">
+      <c r="E2" s="33" t="n">
         <f aca="false">WEEEAmount!E40</f>
         <v>1441357.2</v>
       </c>
-      <c r="F2" s="34" t="n">
+      <c r="F2" s="33" t="n">
         <f aca="false">WEEEAmount!F40</f>
         <v>720678.6</v>
       </c>
-      <c r="G2" s="34" t="n">
+      <c r="G2" s="33" t="n">
         <f aca="false">WEEEAmount!G40</f>
         <v>960904.8</v>
       </c>
@@ -19363,557 +19836,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <f aca="false">$G$2/7*6</f>
-        <v>0.15</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">$G$2/7*6</f>
-        <v>0.15</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <f aca="false">$G$2/7*6</f>
-        <v>0.15</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <f aca="false">$G$2/7*6</f>
-        <v>0.15</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0.175</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <f aca="false">C2*1.01</f>
-        <v>0.1515</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">D2*1.01</f>
-        <v>0.1515</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <f aca="false">E2*1.01</f>
-        <v>0.1515</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <f aca="false">F2*1.01</f>
-        <v>0.1515</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <f aca="false">G2*1.01</f>
-        <v>0.17675</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <f aca="false">C3*1.01</f>
-        <v>0.153015</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">D3*1.01</f>
-        <v>0.153015</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <f aca="false">E3*1.01</f>
-        <v>0.153015</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <f aca="false">F3*1.01</f>
-        <v>0.153015</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <f aca="false">G3*1.01</f>
-        <v>0.1785175</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">C4*1.01</f>
-        <v>0.15454515</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">D4*1.01</f>
-        <v>0.15454515</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <f aca="false">E4*1.01</f>
-        <v>0.15454515</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <f aca="false">F4*1.01</f>
-        <v>0.15454515</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <f aca="false">G4*1.01</f>
-        <v>0.180302675</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <f aca="false">C5*1.01</f>
-        <v>0.1560906015</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <f aca="false">D5*1.01</f>
-        <v>0.1560906015</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <f aca="false">E5*1.01</f>
-        <v>0.1560906015</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <f aca="false">F5*1.01</f>
-        <v>0.1560906015</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <f aca="false">G5*1.01</f>
-        <v>0.18210570175</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <f aca="false">C6*1.01</f>
-        <v>0.157651507515</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <f aca="false">D6*1.01</f>
-        <v>0.157651507515</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <f aca="false">E6*1.01</f>
-        <v>0.157651507515</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <f aca="false">F6*1.01</f>
-        <v>0.157651507515</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <f aca="false">G6*1.01</f>
-        <v>0.1839267587675</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <f aca="false">C2*0.9</f>
-        <v>0.135</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <f aca="false">D2*0.9</f>
-        <v>0.135</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <f aca="false">E2*0.9</f>
-        <v>0.135</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <f aca="false">F2*0.9</f>
-        <v>0.135</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <f aca="false">G2*0.9</f>
-        <v>0.1575</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">C8*1.01</f>
-        <v>0.13635</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <f aca="false">D8*1.01</f>
-        <v>0.13635</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <f aca="false">E8*1.01</f>
-        <v>0.13635</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">F8*1.01</f>
-        <v>0.13635</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">G8*1.01</f>
-        <v>0.159075</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <f aca="false">C9*1.01</f>
-        <v>0.1377135</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <f aca="false">D9*1.01</f>
-        <v>0.1377135</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <f aca="false">E9*1.01</f>
-        <v>0.1377135</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">F9*1.01</f>
-        <v>0.1377135</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">G9*1.01</f>
-        <v>0.16066575</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <f aca="false">C10*1.01</f>
-        <v>0.139090635</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <f aca="false">D10*1.01</f>
-        <v>0.139090635</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <f aca="false">E10*1.01</f>
-        <v>0.139090635</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">F10*1.01</f>
-        <v>0.139090635</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">G10*1.01</f>
-        <v>0.1622724075</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <f aca="false">C11*1.01</f>
-        <v>0.14048154135</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <f aca="false">D11*1.01</f>
-        <v>0.14048154135</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <f aca="false">E11*1.01</f>
-        <v>0.14048154135</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <f aca="false">F11*1.01</f>
-        <v>0.14048154135</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">G11*1.01</f>
-        <v>0.163895131575</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <f aca="false">C12*1.01</f>
-        <v>0.1418863567635</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <f aca="false">D12*1.01</f>
-        <v>0.1418863567635</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <f aca="false">E12*1.01</f>
-        <v>0.1418863567635</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <f aca="false">F12*1.01</f>
-        <v>0.1418863567635</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <f aca="false">G12*1.01</f>
-        <v>0.16553408289075</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <f aca="false">C2*0.8</f>
-        <v>0.12</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <f aca="false">D2*0.8</f>
-        <v>0.12</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <f aca="false">E2*0.8</f>
-        <v>0.12</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <f aca="false">F2*0.8</f>
-        <v>0.12</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <f aca="false">G2*0.8</f>
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <f aca="false">C14*1.01</f>
-        <v>0.1212</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <f aca="false">D14*1.01</f>
-        <v>0.1212</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <f aca="false">E14*1.01</f>
-        <v>0.1212</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <f aca="false">F14*1.01</f>
-        <v>0.1212</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <f aca="false">G14*1.01</f>
-        <v>0.1414</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <f aca="false">C15*1.01</f>
-        <v>0.122412</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <f aca="false">D15*1.01</f>
-        <v>0.122412</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <f aca="false">E15*1.01</f>
-        <v>0.122412</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <f aca="false">F15*1.01</f>
-        <v>0.122412</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <f aca="false">G15*1.01</f>
-        <v>0.142814</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <f aca="false">C16*1.01</f>
-        <v>0.12363612</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <f aca="false">D16*1.01</f>
-        <v>0.12363612</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <f aca="false">E16*1.01</f>
-        <v>0.12363612</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <f aca="false">F16*1.01</f>
-        <v>0.12363612</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <f aca="false">G16*1.01</f>
-        <v>0.14424214</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <f aca="false">C17*1.01</f>
-        <v>0.1248724812</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <f aca="false">D17*1.01</f>
-        <v>0.1248724812</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <f aca="false">E17*1.01</f>
-        <v>0.1248724812</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <f aca="false">F17*1.01</f>
-        <v>0.1248724812</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <f aca="false">G17*1.01</f>
-        <v>0.1456845614</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <f aca="false">C18*1.01</f>
-        <v>0.126121206012</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <f aca="false">D18*1.01</f>
-        <v>0.126121206012</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <f aca="false">E18*1.01</f>
-        <v>0.126121206012</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <f aca="false">F18*1.01</f>
-        <v>0.126121206012</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <f aca="false">G18*1.01</f>
-        <v>0.147141407014</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>